--- a/biology/Zoologie/Argyroneta/Argyroneta.xlsx
+++ b/biology/Zoologie/Argyroneta/Argyroneta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Argyroneta est un genre d'araignées aranéomorphes de la famille des Dictynidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Argyroneta est un genre d'araignées aranéomorphes de la famille des Dictynidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de ce genre d'araignées semble venir des termes grecs ἄργυρος (árgyros, "argenté") et νητός (netós), dérivé du mot νέω (néō, "fil")[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de ce genre d'araignées semble venir des termes grecs ἄργυρος (árgyros, "argenté") et νητός (netós), dérivé du mot νέω (néō, "fil").
 </t>
         </is>
       </c>
@@ -542,14 +556,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles ont une envergure généralement comprise entre 10 et 15 mm. Pour ce qui est des femelles, elle mesure entre 8 et 15 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles ont une envergure généralement comprise entre 10 et 15 mm. Pour ce qui est des femelles, elle mesure entre 8 et 15 mm.
 Les pattes de ces araignées sont brunes et recouvertes de courts poils noirs.
-Cette araignée évolue également sous l'eau où elle prend une teinte argentée. Grâce à sa soie hydrophobe, elle peut se constituer des réserves d'air afin de pouvoir respirer en milieu aquatique[3].
-Elle tisse une toile en forme de cloche qui retient l'air afin de pouvoir vivre dans l'eau[3].
-Alimentation
-Ce type d'araignées chasse en milieu aquatique à la recherche d'invertébrés. Une fois la proie capturée, elle est ramenée dans la toile en cloche pour être mangée[3].
+Cette araignée évolue également sous l'eau où elle prend une teinte argentée. Grâce à sa soie hydrophobe, elle peut se constituer des réserves d'air afin de pouvoir respirer en milieu aquatique.
+Elle tisse une toile en forme de cloche qui retient l'air afin de pouvoir vivre dans l'eau.
 </t>
         </is>
       </c>
@@ -575,14 +589,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Distribution et environnement</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Argyroneta aquatica se rencontre en zone paléarctique[1]. Ce type d'araignées peut être rencontrées dans des fossés ou à proximité d'étang[2].
-Menace
-L'altération ou la disparition de son environnement du fait des activités humaines menace la préservation de l'espèce[3].
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce type d'araignées chasse en milieu aquatique à la recherche d'invertébrés. Une fois la proie capturée, elle est ramenée dans la toile en cloche pour être mangée.
 </t>
         </is>
       </c>
@@ -608,15 +626,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Liste des espèces</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 18.5, 14/11/2017)[4] :
-Argyroneta aquatica (Clerck, 1757)
-Selon The World Spider Catalog (version 18.0, 2017)[5] :
-†Argyroneta longipes Heer, 1865</t>
+          <t>Distribution et environnement</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Argyroneta aquatica se rencontre en zone paléarctique. Ce type d'araignées peut être rencontrées dans des fossés ou à proximité d'étang.
+</t>
         </is>
       </c>
     </row>
@@ -641,10 +659,84 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Distribution et environnement</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Menace</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'altération ou la disparition de son environnement du fait des activités humaines menace la préservation de l'espèce.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Argyroneta</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Argyroneta</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 18.5, 14/11/2017) :
+Argyroneta aquatica (Clerck, 1757)
+Selon The World Spider Catalog (version 18.0, 2017) :
+†Argyroneta longipes Heer, 1865</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Argyroneta</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Argyroneta</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Latreille, 1804 : Histoire naturelle générale et particulière des Crustacés et des Insectes. Paris, vol. 7, p. 144-305.</t>
         </is>
